--- a/biology/Botanique/Sanguina_nivaloides/Sanguina_nivaloides.xlsx
+++ b/biology/Botanique/Sanguina_nivaloides/Sanguina_nivaloides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sanguina nivaloides est l'espèce-type du genre Sanguina de la famille des Chlamydomonadaceae. Cette espèce est en partie responsable du Sang des glaciers.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Sanguina nivaloides est décrite en 2019 en même que la création du genre Sanguina. Cette espèce se distingue des autres cystes rouges par le nombre de couches de sa paroi cellulaire, la taille et la morphologie de sa cellule et son habitat[1].
-Les cystes sont sphériques avec une paroi lisse et contiennent un noyau ainsi qu'un chloroplaste central. De nombreux globules lipidiques périphériques contenant des caroténoïdes de couleur rouge sont présents[2]. Les Sanguina nivaloides peuvent être différentiées de l'espèce Sanguina aurantia par leur coloration rouge contre une coloration orange pour cette dernière[3]. Les cystes sont localisés dans la couche d'eau libre qui circule à la surface des cristaux de glace de la neige fondante[4]. La membrane plasmique du cyste de Sanguina nivaloides est ridée, ce qui augmente sa surface de plus de 10%, permettant des échanges accrus avec le milieu environnant oligotrophe [4]. La photosynthèse permet l'accumulation de deux réserves de carbone: de l'amidon dans des protubérances périphériques du chloroplaste, et des triacylglycérols dans le cytosol. L'amidon est une réserve de court terme, alors que le triacylglycérol est une réserve de long terme[4]. Les triacylglycérols sont accumulés dans des gouttelettes lipidiques cytosoliques qui se chargent aussi en caroténoïdes dont l'astaxanthine, permettant à la cellule de lutter contre les stress oxydants liés à la très forte luminosité de la neige[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Sanguina nivaloides est décrite en 2019 en même que la création du genre Sanguina. Cette espèce se distingue des autres cystes rouges par le nombre de couches de sa paroi cellulaire, la taille et la morphologie de sa cellule et son habitat.
+Les cystes sont sphériques avec une paroi lisse et contiennent un noyau ainsi qu'un chloroplaste central. De nombreux globules lipidiques périphériques contenant des caroténoïdes de couleur rouge sont présents. Les Sanguina nivaloides peuvent être différentiées de l'espèce Sanguina aurantia par leur coloration rouge contre une coloration orange pour cette dernière. Les cystes sont localisés dans la couche d'eau libre qui circule à la surface des cristaux de glace de la neige fondante. La membrane plasmique du cyste de Sanguina nivaloides est ridée, ce qui augmente sa surface de plus de 10%, permettant des échanges accrus avec le milieu environnant oligotrophe . La photosynthèse permet l'accumulation de deux réserves de carbone: de l'amidon dans des protubérances périphériques du chloroplaste, et des triacylglycérols dans le cytosol. L'amidon est une réserve de court terme, alors que le triacylglycérol est une réserve de long terme. Les triacylglycérols sont accumulés dans des gouttelettes lipidiques cytosoliques qui se chargent aussi en caroténoïdes dont l'astaxanthine, permettant à la cellule de lutter contre les stress oxydants liés à la très forte luminosité de la neige.
 </t>
         </is>
       </c>
@@ -543,15 +557,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Sanguina nivaloides Leya, Procházková &amp; Nedbalová, 2019[2],[5],[6].
-Étymologie
-Le nom de cette espèce, son épithète nivaloides, se réfère à l'habitat de cette espèce, la neige[3].
-Holotype
-L'holotype de cette espèce Sanguina nivaloides est le spécimen CCCryo RS 0015–2010 consistant en des cystes (séchés et non viables) présents dans l'herbarium du jardin botanique et du musée botanique de Berlin-Dahlem[3].
-Phylogénie
-Le genre Sanguina se distingue des autres genres de la famille Chlamydomonadaceae en formant un clade distinct après analyse phylogénique des gènes de l'ARN ribosomique 18S et rbcL[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Sanguina nivaloides Leya, Procházková &amp; Nedbalová, 2019.
 </t>
         </is>
       </c>
@@ -577,12 +587,125 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette espèce, son épithète nivaloides, se réfère à l'habitat de cette espèce, la neige.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sanguina_nivaloides</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sanguina_nivaloides</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Holotype</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de cette espèce Sanguina nivaloides est le spécimen CCCryo RS 0015–2010 consistant en des cystes (séchés et non viables) présents dans l'herbarium du jardin botanique et du musée botanique de Berlin-Dahlem.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sanguina_nivaloides</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sanguina_nivaloides</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Sanguina se distingue des autres genres de la famille Chlamydomonadaceae en formant un clade distinct après analyse phylogénique des gènes de l'ARN ribosomique 18S et rbcL.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sanguina_nivaloides</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sanguina_nivaloides</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Sanguina nivaloides peut être retrouvée lors de la fonte des neiges dans diverses parties du monde dont l'Europe, l'Asie, l'Afrique, l'Antarctique, l'Arctique, l'Amérique du Nord, l'Amérique du Sud, la Nouvelle-Zélande et l'Australie[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Sanguina nivaloides peut être retrouvée lors de la fonte des neiges dans diverses parties du monde dont l'Europe, l'Asie, l'Afrique, l'Antarctique, l'Arctique, l'Amérique du Nord, l'Amérique du Sud, la Nouvelle-Zélande et l'Australie.
 </t>
         </is>
       </c>
